--- a/biology/Zoologie/Cambarus/Cambarus.xlsx
+++ b/biology/Zoologie/Cambarus/Cambarus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambarus est un genre d'écrevisses nord-américaines de la famille des Cambaridae. Plusieurs de ces espèces sont sur la liste rouge de l'UICN.
 L'espèce Cambarus affinis, une écrevisse américaine invasive en Europe, est maintenant décrite sous le taxon Orconectes limosus.
@@ -512,7 +524,9 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 sous-genre Cambarus (Aviticambarus) Hobbs, 1969
@@ -554,7 +568,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">LC : Préoccupation mineure suivant le classement UICN
 NT : Quasi menacé
